--- a/biology/Histoire de la zoologie et de la botanique/Thomas_Croxen_Archer/Thomas_Croxen_Archer.xlsx
+++ b/biology/Histoire de la zoologie et de la botanique/Thomas_Croxen_Archer/Thomas_Croxen_Archer.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Thomas Croxen Archer est un botaniste britannique, né en 1817 à Northamptonshire et mort le 19 février 1885.
 </t>
@@ -511,7 +523,9 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Il travaille, de 1842 à 1856, au service des douanes de Liverpool. Il enseigne la botanique à l’école de médecine de Liverpool, puis au Queen’s College de Liverpool. Il dirige le musée de science et d’art d’Édimbourg de 1860 à 1885.
 Il est membre de la Royal Scottish Society of Arts (qu’il préside en 1874), de la Société de botanique d’Édimbourg, de la Royal Society of Edinburgh et de diverses sociétés savantes.
@@ -543,7 +557,9 @@
           <t>Source</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>C.D. Waterston et A. Macmillan Shearer (2006). Former Fellows of The Royal Society of Edinburgh, 1783–2002, Royal Society of Edinburgh (Edinburgh) : 1024 p.  (ISBN 0-902-198-84-X)</t>
         </is>
